--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_39.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3807588.949718157</v>
+        <v>3802203.003675567</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10367347.96096032</v>
+        <v>11143223.90601995</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7525445.754121026</v>
+        <v>7467230.414034791</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>179.9269603489844</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,25 +707,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>11.37954470254693</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>49.81045956598046</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>213.6113417665672</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>199.0109809561225</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>65.9418277868885</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>162.6249420534766</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>261.9025067912345</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H8" t="n">
-        <v>138.3524385210802</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>61.44749355031661</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>196.8470516243276</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0669836643703</v>
+        <v>135.275240877313</v>
       </c>
       <c r="H9" t="n">
-        <v>99.90681807664345</v>
+        <v>92.26024958059013</v>
       </c>
       <c r="I9" t="n">
-        <v>45.44580843958667</v>
+        <v>18.18624318344746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>147.9721212459916</v>
+        <v>133.2658462320107</v>
       </c>
       <c r="T9" t="n">
-        <v>195.0194028815133</v>
+        <v>191.828123840699</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8053112726921</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>123.8262008325962</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>73.01947811031256</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>99.32764374521089</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881266</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,10 +1531,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>23.10998325717174</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881278</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>220.6143173874693</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560529</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>141.9273329298508</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576152</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>9.146142788180832</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>139.1465069965569</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445519</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541848</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652571</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>102.9630220374172</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>180.8909947756157</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1394.624369323446</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="C2" t="n">
-        <v>1394.624369323446</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2630.625911950183</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2411.991244922246</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2158.229459560338</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2158.229459560338</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>2158.229459560338</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X2" t="n">
-        <v>1784.763701299258</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y2" t="n">
-        <v>1394.624369323446</v>
+        <v>2289.351746278601</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.942782082032</v>
+        <v>2367.353967622167</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>2317.040372100974</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>2317.040372100974</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>2317.040372100974</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>2317.040372100974</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2317.040372100974</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="V4" t="n">
-        <v>512.3599521189926</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="W4" t="n">
-        <v>222.942782082032</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="X4" t="n">
-        <v>222.942782082032</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.942782082032</v>
+        <v>2549.002432452407</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1595.875667274027</v>
+        <v>1034.912596435356</v>
       </c>
       <c r="C5" t="n">
-        <v>1595.875667274027</v>
+        <v>665.9500794949442</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>665.9500794949442</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>665.9500794949442</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>254.9641747053367</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>75.17723181374772</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>192.4307036906645</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>745.2439619368637</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1376.961772920175</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>2004.269440980022</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2551.430645747099</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2662.164970996626</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2482.349229285932</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2482.349229285932</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2151.286341942362</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>1798.517686672247</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.48357412947</v>
+        <v>1425.051928411168</v>
       </c>
       <c r="Y5" t="n">
-        <v>1595.875667274027</v>
+        <v>1034.912596435356</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>967.3646662469702</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>792.9116369658432</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>643.9772273045919</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>484.7397722991365</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>200.7638166852433</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>99.84783883004793</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1441.490579173192</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1640.147320825857</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2636.288039261394</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2615.176139663581</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2465.709350526216</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2268.720054686303</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>2040.581267197469</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1805.429158965726</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1551.191802237525</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1343.340302031992</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1135.580003267038</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>154.9909114159742</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>339.8239063167927</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>545.0935070360306</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>750.9168718721348</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>925.0117672607337</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>1050.459343859349</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>620.8081818444795</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>456.5405636086444</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="W7" t="n">
-        <v>463.5809975486215</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="X7" t="n">
-        <v>235.5914466506042</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>201.8560754027575</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1390.729123214037</v>
+        <v>1989.559504814594</v>
       </c>
       <c r="C8" t="n">
-        <v>1021.766606273625</v>
+        <v>1989.559504814594</v>
       </c>
       <c r="D8" t="n">
-        <v>1021.766606273625</v>
+        <v>1631.293806207844</v>
       </c>
       <c r="E8" t="n">
-        <v>1021.766606273625</v>
+        <v>1245.505553609599</v>
       </c>
       <c r="F8" t="n">
-        <v>610.780701484018</v>
+        <v>834.519648819992</v>
       </c>
       <c r="G8" t="n">
-        <v>193.6929197204454</v>
+        <v>418.9265767457143</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>116.0111571237145</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>199.5143021373487</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>468.42649406655</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>838.937608855259</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1282.872051350723</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>1738.603625623767</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2155.602766936375</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2477.000885571627</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2670.184741116958</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2574.994750559855</v>
       </c>
       <c r="T8" t="n">
-        <v>2540.93405351505</v>
+        <v>2376.159344878716</v>
       </c>
       <c r="U8" t="n">
-        <v>2540.93405351505</v>
+        <v>2376.159344878716</v>
       </c>
       <c r="V8" t="n">
-        <v>2540.93405351505</v>
+        <v>2376.159344878716</v>
       </c>
       <c r="W8" t="n">
-        <v>2540.93405351505</v>
+        <v>2376.159344878716</v>
       </c>
       <c r="X8" t="n">
-        <v>2167.468295253971</v>
+        <v>2376.159344878716</v>
       </c>
       <c r="Y8" t="n">
-        <v>1777.328963278159</v>
+        <v>2376.159344878716</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>967.3646662469702</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C9" t="n">
-        <v>792.9116369658432</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D9" t="n">
-        <v>643.9772273045919</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E9" t="n">
-        <v>484.7397722991365</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260214</v>
+        <v>302.146753175264</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852434</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>72.31292442990731</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>121.8264159807865</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5508014837215</v>
+        <v>537.8115956207113</v>
       </c>
       <c r="L9" t="n">
-        <v>625.9123413498401</v>
+        <v>845.2309936650829</v>
       </c>
       <c r="M9" t="n">
-        <v>972.6029207988471</v>
+        <v>1223.331799318884</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>1625.848453140028</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>1971.852758176341</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2230.218651003075</v>
       </c>
       <c r="Q9" t="n">
-        <v>2636.288039261394</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R9" t="n">
-        <v>2615.176139663581</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S9" t="n">
-        <v>2465.709350526216</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T9" t="n">
-        <v>2268.720054686303</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U9" t="n">
-        <v>2040.581267197469</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V9" t="n">
-        <v>1805.429158965726</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W9" t="n">
-        <v>1551.191802237525</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X9" t="n">
-        <v>1343.340302031992</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y9" t="n">
-        <v>1135.580003267038</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>923.3997019991118</v>
+        <v>572.619710909279</v>
       </c>
       <c r="C10" t="n">
-        <v>798.3227314611358</v>
+        <v>572.619710909279</v>
       </c>
       <c r="D10" t="n">
-        <v>648.2060920488001</v>
+        <v>422.5030714969432</v>
       </c>
       <c r="E10" t="n">
-        <v>648.2060920488001</v>
+        <v>274.5899779145501</v>
       </c>
       <c r="F10" t="n">
-        <v>501.3161445508897</v>
+        <v>127.7000304166397</v>
       </c>
       <c r="G10" t="n">
-        <v>332.7092995462731</v>
+        <v>127.7000304166397</v>
       </c>
       <c r="H10" t="n">
-        <v>178.4546564460382</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>82.88339090485933</v>
       </c>
       <c r="K10" t="n">
-        <v>154.9909114159743</v>
+        <v>260.2782098866543</v>
       </c>
       <c r="L10" t="n">
-        <v>339.8239063167927</v>
+        <v>542.8089378877601</v>
       </c>
       <c r="M10" t="n">
-        <v>545.0935070360306</v>
+        <v>851.0870999282806</v>
       </c>
       <c r="N10" t="n">
-        <v>750.9168718721348</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O10" t="n">
-        <v>925.0117672607337</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P10" t="n">
-        <v>1050.459343859349</v>
+        <v>1629.372157534688</v>
       </c>
       <c r="Q10" t="n">
-        <v>1053.877663279709</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1587.485439024174</v>
       </c>
       <c r="S10" t="n">
-        <v>923.3997019991118</v>
+        <v>1587.485439024174</v>
       </c>
       <c r="T10" t="n">
-        <v>923.3997019991118</v>
+        <v>1587.485439024174</v>
       </c>
       <c r="U10" t="n">
-        <v>923.3997019991118</v>
+        <v>1298.369833982366</v>
       </c>
       <c r="V10" t="n">
-        <v>923.3997019991118</v>
+        <v>1043.685345776479</v>
       </c>
       <c r="W10" t="n">
-        <v>923.3997019991118</v>
+        <v>754.2681757395187</v>
       </c>
       <c r="X10" t="n">
-        <v>923.3997019991118</v>
+        <v>754.2681757395187</v>
       </c>
       <c r="Y10" t="n">
-        <v>923.3997019991118</v>
+        <v>754.2681757395187</v>
       </c>
     </row>
     <row r="11">
@@ -5027,49 +5027,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5078,10 +5078,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,25 +5112,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
         <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5258,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5267,19 +5267,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.8386896933887</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9025067654818</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5461,25 +5461,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>988.4871545236284</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>988.4871545236284</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5540,10 +5540,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466572</v>
@@ -5558,7 +5558,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245714</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>726.955532171245</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>558.0193492433381</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1357.386127043032</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1129.396576145015</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>908.6039970014847</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,31 +5747,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5780,10 +5780,10 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5829,22 +5829,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K21" t="n">
-        <v>484.8243144841095</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2824.769373306003</v>
+        <v>653.7474797708873</v>
       </c>
       <c r="C22" t="n">
-        <v>2655.833190378096</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053498</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.376853076439</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.301626420637</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>3744.61713821475</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>3455.19996817779</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>3227.210417279773</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>3006.417838136243</v>
+        <v>835.395944601127</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5963,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6066,7 +6066,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K24" t="n">
         <v>577.3880777468471</v>
@@ -6075,16 +6075,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>483.6514929544277</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="29">
@@ -6452,22 +6452,22 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6488,7 +6488,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1140.291933891999</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E31" t="n">
         <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6616,16 +6616,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6652,7 +6652,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594055</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6695,31 +6695,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6777,7 +6777,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K33" t="n">
         <v>577.3880777468471</v>
@@ -6786,19 +6786,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
         <v>483.825546038073</v>
@@ -6895,10 +6895,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6917,55 +6917,55 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -7008,13 +7008,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K36" t="n">
         <v>577.3880777468471</v>
@@ -7023,19 +7023,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7090,16 +7090,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7123,19 +7123,19 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7166,16 +7166,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7199,7 +7199,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969308</v>
+        <v>506.2737913123343</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7318,7 +7318,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,16 +7327,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,19 +7354,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7403,43 +7403,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>506.2737913123343</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7625,31 +7625,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192673</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7673,22 +7673,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,31 +7719,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1468.439756756785</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O45" t="n">
-        <v>2020.349486996072</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P45" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.2707707770319</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C46" t="n">
-        <v>634.334587849125</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.244907039234</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.169680383432</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.485192177545</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.701365648819</v>
+        <v>1431.068022140585</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.711814750802</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.9192356072716</v>
+        <v>982.2858920990373</v>
       </c>
     </row>
   </sheetData>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>35.04072454780241</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8231,10 +8231,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>378.0407240669644</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,19 +8453,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780376</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -8474,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>224.0472258793196</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>168.8820637317194</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>17.26494649393211</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>125.5054897610406</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>43.26526345294987</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>5.095338001567853</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>144.5956654067402</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>139.4693302300315</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>32.8926045706001</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>6.274541026374379</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>45.65245098079511</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>36.51445555167257</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>707170.6479272341</v>
+        <v>684779.7421147119</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>684779.7421147119</v>
+        <v>645100.5723224635</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>630418.1664798533</v>
+        <v>630418.1664798532</v>
       </c>
     </row>
     <row r="6">
@@ -26317,43 +26317,43 @@
         <v>800515.7256176765</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="G2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="I2" t="n">
         <v>786967.9346977561</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="K2" t="n">
-        <v>800515.7256176773</v>
+        <v>800515.725617677</v>
       </c>
       <c r="L2" t="n">
-        <v>800515.7256176773</v>
+        <v>800515.7256176757</v>
       </c>
       <c r="M2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176757</v>
       </c>
       <c r="N2" t="n">
-        <v>800515.725617677</v>
+        <v>800515.7256176772</v>
       </c>
       <c r="O2" t="n">
         <v>800515.7256176772</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977557</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>196446.3877966352</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>315238.2384513054</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>475327.3220074726</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080584</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207826.5542404878</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>207826.5542404878</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="D4" t="n">
-        <v>174833.3509411825</v>
+        <v>121617.1617317168</v>
       </c>
       <c r="E4" t="n">
-        <v>5533.218327813826</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="F4" t="n">
-        <v>5533.218327813825</v>
+        <v>5677.53656668278</v>
       </c>
       <c r="G4" t="n">
-        <v>5533.218327813826</v>
+        <v>5677.536566682775</v>
       </c>
       <c r="H4" t="n">
-        <v>5533.218327813825</v>
+        <v>5677.536566682813</v>
       </c>
       <c r="I4" t="n">
-        <v>5533.218327813826</v>
+        <v>5677.536566682766</v>
       </c>
       <c r="J4" t="n">
-        <v>5533.218327813825</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
-        <v>13524.07759090729</v>
+        <v>13668.39582977623</v>
       </c>
       <c r="L4" t="n">
-        <v>13524.07759090729</v>
+        <v>13668.39582977626</v>
       </c>
       <c r="M4" t="n">
-        <v>13524.07759090729</v>
+        <v>13668.39582977627</v>
       </c>
       <c r="N4" t="n">
-        <v>13524.0775909073</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="O4" t="n">
-        <v>13524.0775909073</v>
+        <v>13668.39582977626</v>
       </c>
       <c r="P4" t="n">
-        <v>5533.218327813826</v>
+        <v>5677.5365666828</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>87562.04517084677</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>95586.42776879409</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-80137.78590076539</v>
+        <v>-82233.64712331092</v>
       </c>
       <c r="C6" t="n">
-        <v>509830.0933137793</v>
+        <v>340240.3167489152</v>
       </c>
       <c r="D6" t="n">
-        <v>353364.0509575356</v>
+        <v>268073.89766586</v>
       </c>
       <c r="E6" t="n">
-        <v>-90740.50483477136</v>
+        <v>204840.5462996933</v>
       </c>
       <c r="F6" t="n">
-        <v>680312.186546035</v>
+        <v>680167.8683071663</v>
       </c>
       <c r="G6" t="n">
-        <v>680312.1865460351</v>
+        <v>680167.8683071663</v>
       </c>
       <c r="H6" t="n">
-        <v>680312.186546035</v>
+        <v>680167.8683071662</v>
       </c>
       <c r="I6" t="n">
-        <v>680312.1865460352</v>
+        <v>680167.8683071663</v>
       </c>
       <c r="J6" t="n">
-        <v>503888.9673534423</v>
+        <v>503744.649114573</v>
       </c>
       <c r="K6" t="n">
-        <v>664399.8141792228</v>
+        <v>664255.4959403537</v>
       </c>
       <c r="L6" t="n">
-        <v>683827.5321728545</v>
+        <v>683683.2139339841</v>
       </c>
       <c r="M6" t="n">
-        <v>559619.0214647949</v>
+        <v>559474.7032259257</v>
       </c>
       <c r="N6" t="n">
-        <v>683827.5321728543</v>
+        <v>683683.2139339857</v>
       </c>
       <c r="O6" t="n">
-        <v>683827.5321728545</v>
+        <v>683683.2139339856</v>
       </c>
       <c r="P6" t="n">
-        <v>680312.1865460352</v>
+        <v>680167.8683071659</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>593.4761003380651</v>
+        <v>961.567045198034</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>368.0909448599689</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>406.4084551436396</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>185.3459314220231</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>163.0361681064246</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>117.4363615326474</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,10 +27594,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>38.52630155726084</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>213.9059229898143</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>320.2961108691651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>123.6357126046204</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>24.62049154535646</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>176.6884455541354</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>9.327150742399141</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>43.42062026603163</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>73.79109488559131</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,19 +28059,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38583356919825</v>
+        <v>3.865596161600134</v>
       </c>
       <c r="H8" t="n">
-        <v>24.43391804055158</v>
+        <v>39.58853668998738</v>
       </c>
       <c r="I8" t="n">
-        <v>91.97984867651562</v>
+        <v>149.0283960200893</v>
       </c>
       <c r="J8" t="n">
-        <v>202.4946418937401</v>
+        <v>328.0876422206096</v>
       </c>
       <c r="K8" t="n">
-        <v>303.4869768779021</v>
+        <v>491.7183277411434</v>
       </c>
       <c r="L8" t="n">
-        <v>376.5024309712531</v>
+        <v>610.0200662717136</v>
       </c>
       <c r="M8" t="n">
-        <v>418.9314987074825</v>
+        <v>678.7648620105699</v>
       </c>
       <c r="N8" t="n">
-        <v>425.710248335967</v>
+        <v>689.7479871047163</v>
       </c>
       <c r="O8" t="n">
-        <v>401.9861157822519</v>
+        <v>651.309465272805</v>
       </c>
       <c r="P8" t="n">
-        <v>343.0858495426701</v>
+        <v>555.8775600333016</v>
       </c>
       <c r="Q8" t="n">
-        <v>257.6431848457577</v>
+        <v>417.4408974959967</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>242.8222548861146</v>
       </c>
       <c r="S8" t="n">
-        <v>54.36718245810517</v>
+        <v>88.08727253246313</v>
       </c>
       <c r="T8" t="n">
-        <v>10.44398644916534</v>
+        <v>16.92164719740459</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.3092476929280106</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.276533498840366</v>
+        <v>2.068276285897658</v>
       </c>
       <c r="H9" t="n">
-        <v>12.32862615985301</v>
+        <v>19.97519465590633</v>
       </c>
       <c r="I9" t="n">
-        <v>43.95082441182841</v>
+        <v>71.21038966796762</v>
       </c>
       <c r="J9" t="n">
-        <v>120.6044214847383</v>
+        <v>195.4067520812345</v>
       </c>
       <c r="K9" t="n">
-        <v>206.1321659070429</v>
+        <v>333.9812632363775</v>
       </c>
       <c r="L9" t="n">
-        <v>277.1701353512822</v>
+        <v>449.0790242691385</v>
       </c>
       <c r="M9" t="n">
-        <v>323.4444746842454</v>
+        <v>524.0540396329284</v>
       </c>
       <c r="N9" t="n">
-        <v>332.0050874900653</v>
+        <v>537.9241906905493</v>
       </c>
       <c r="O9" t="n">
-        <v>303.7197925947077</v>
+        <v>492.0955424609222</v>
       </c>
       <c r="P9" t="n">
-        <v>243.7619099671574</v>
+        <v>394.9500567342642</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.9483813607457</v>
+        <v>264.0136536173923</v>
       </c>
       <c r="R9" t="n">
-        <v>79.25705355080804</v>
+        <v>128.4145574700318</v>
       </c>
       <c r="S9" t="n">
-        <v>23.71104985784626</v>
+        <v>38.41732487182708</v>
       </c>
       <c r="T9" t="n">
-        <v>5.145325813308317</v>
+        <v>8.336604854122575</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.1360708082827407</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.070202803888314</v>
+        <v>1.733973360193176</v>
       </c>
       <c r="H10" t="n">
-        <v>9.515075838207016</v>
+        <v>15.4165995115357</v>
       </c>
       <c r="I10" t="n">
-        <v>32.18391704784131</v>
+        <v>52.14530795926388</v>
       </c>
       <c r="J10" t="n">
-        <v>75.66333823490379</v>
+        <v>122.5919165656575</v>
       </c>
       <c r="K10" t="n">
-        <v>124.3381075790241</v>
+        <v>201.4561776660798</v>
       </c>
       <c r="L10" t="n">
-        <v>159.1099695889954</v>
+        <v>257.7945484781745</v>
       </c>
       <c r="M10" t="n">
-        <v>167.7591540676927</v>
+        <v>271.808205907372</v>
       </c>
       <c r="N10" t="n">
-        <v>163.7702163441091</v>
+        <v>265.3452142921068</v>
       </c>
       <c r="O10" t="n">
-        <v>151.2683017714137</v>
+        <v>245.0892527662137</v>
       </c>
       <c r="P10" t="n">
-        <v>129.436164572092</v>
+        <v>209.7161962182727</v>
       </c>
       <c r="Q10" t="n">
-        <v>89.61489115104783</v>
+        <v>145.1966238249031</v>
       </c>
       <c r="R10" t="n">
-        <v>48.12020970937817</v>
+        <v>77.96574763195859</v>
       </c>
       <c r="S10" t="n">
-        <v>18.65071613685361</v>
+        <v>30.21842664991197</v>
       </c>
       <c r="T10" t="n">
-        <v>4.572684707522795</v>
+        <v>7.408795266279931</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.09458036510144606</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,25 +31838,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>567.5882829286713</v>
+        <v>339.9772972286976</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -31865,10 +31865,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>610.054682604365</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,25 +32312,25 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551114</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,10 +32339,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,25 +32549,25 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>381.6404378718165</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,10 +32576,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32737,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32786,37 +32786,37 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>164.9290651940687</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32862,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33023,37 +33023,37 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940696</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33211,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33260,37 +33260,37 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990647</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33336,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33497,37 +33497,37 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717718</v>
       </c>
       <c r="O33" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,37 +33734,37 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,37 +33971,37 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>279.2419622547062</v>
+        <v>404.0195168876598</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,37 +34208,37 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>404.0195168876598</v>
       </c>
       <c r="M42" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,37 +34445,37 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q45" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>118.437850380724</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>559.3511648291915</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>147.0417376939233</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807253</v>
+        <v>271.6284766961628</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>374.2536513017264</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>448.4186287832972</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>460.3349235081254</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>421.2112538511183</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>324.6445642780321</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>195.1352076215472</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>27.23671707198247</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>68.56912541456776</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>420.1870501413381</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>310.5246444892643</v>
       </c>
       <c r="M9" t="n">
-        <v>350.1925044939465</v>
+        <v>381.9200057109101</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>406.582478607216</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>349.4992980164777</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>260.975649319934</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>334.1091672672199</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>29.23273644898475</v>
       </c>
       <c r="K10" t="n">
-        <v>102.0686157531412</v>
+        <v>179.186685840197</v>
       </c>
       <c r="L10" t="n">
-        <v>186.6999948493115</v>
+        <v>285.3845737384906</v>
       </c>
       <c r="M10" t="n">
-        <v>207.3430310295333</v>
+        <v>311.3920828692126</v>
       </c>
       <c r="N10" t="n">
-        <v>207.9023887233377</v>
+        <v>309.4773866713354</v>
       </c>
       <c r="O10" t="n">
-        <v>175.8534296854534</v>
+        <v>269.6743806802534</v>
       </c>
       <c r="P10" t="n">
-        <v>126.7147238369855</v>
+        <v>206.9947554831662</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.452847899353443</v>
+        <v>59.03458057320874</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>425.454249006653</v>
+        <v>197.8432633066793</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462695</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>471.5003028244908</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075244</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396436</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>243.7989988974575</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>22.33282074962425</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36522,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193524</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962517</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902957</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>302.474889585677</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770464</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>191.3582339884385</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396427</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>140.6875824748321</v>
+        <v>265.4651371077857</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>265.4651371077857</v>
       </c>
       <c r="M42" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38181,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3918796.994583204</v>
+        <v>3914491.278207133</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +670,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>262.9957677213483</v>
+        <v>14.92708396620963</v>
       </c>
     </row>
     <row r="3">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>94.63926978364057</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>25.31590541686252</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>329.3165257673313</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>149.5385012929399</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>161.1486436253827</v>
+        <v>14.46389722690856</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>267.5186031275733</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>16.01209846167234</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>17.76943124013382</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>150.5509630666493</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>141.6930519056948</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>104.4262124629293</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>144.4286493356916</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6255456814127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>41.74133133758772</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>143.9002723490403</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>241.2831928543109</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>70.38407275859089</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>141.2342243404105</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2964,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>114.6638016462594</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>121.5943701178326</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3474,19 +3474,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>187.2551470558694</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V40" t="n">
-        <v>126.6035148834796</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>40.37234576591469</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4146,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>19.72264368952139</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>31.26260713376619</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1341.294330781294</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C2" t="n">
-        <v>972.3318138408822</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>614.0661152341316</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4375,7 +4375,7 @@
         <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1727.894170845416</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="3">
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4515,25 +4515,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1507.652482896327</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="C5" t="n">
-        <v>1138.689965955915</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="D5" t="n">
-        <v>1138.689965955915</v>
+        <v>604.7036296850076</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>218.9153770867634</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4600,19 +4600,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157406</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>1507.652482896327</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y5" t="n">
-        <v>1507.652482896327</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4658,19 +4658,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>216.7193895227713</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>216.7193895227713</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>216.7193895227713</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>216.7193895227713</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>216.7193895227713</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1510.503178220268</v>
+        <v>846.9387812735522</v>
       </c>
       <c r="C8" t="n">
-        <v>1510.503178220268</v>
+        <v>477.9762643331405</v>
       </c>
       <c r="D8" t="n">
-        <v>1152.237479613518</v>
+        <v>477.9762643331405</v>
       </c>
       <c r="E8" t="n">
-        <v>1152.237479613518</v>
+        <v>477.9762643331405</v>
       </c>
       <c r="F8" t="n">
-        <v>741.25157482391</v>
+        <v>66.99035954353293</v>
       </c>
       <c r="G8" t="n">
-        <v>324.1637930603375</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>325.1460354086931</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>877.9592936548923</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M8" t="n">
-        <v>1509.677104638204</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N8" t="n">
-        <v>1704.011317530186</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
         <v>2022.658083904027</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2680.97525418825</v>
       </c>
       <c r="T8" t="n">
-        <v>2540.93405351505</v>
+        <v>2680.97525418825</v>
       </c>
       <c r="U8" t="n">
-        <v>2287.242350260201</v>
+        <v>2680.97525418825</v>
       </c>
       <c r="V8" t="n">
-        <v>2287.242350260201</v>
+        <v>2349.91236684468</v>
       </c>
       <c r="W8" t="n">
-        <v>2287.242350260201</v>
+        <v>1997.143711574565</v>
       </c>
       <c r="X8" t="n">
-        <v>2287.242350260201</v>
+        <v>1623.677953313486</v>
       </c>
       <c r="Y8" t="n">
-        <v>1897.10301828439</v>
+        <v>1233.538621337674</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>121.5508014837215</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>258.7803994994155</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>899.3257489665201</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1566.87014899353</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2116.306157746253</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2540.27392622709</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>872.2291984494694</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>703.2930155215626</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>553.1763761092268</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>405.2632825268337</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>258.3733350289233</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>89.76649002430668</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>715.9594172515172</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>563.8877373862148</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>274.7355609638946</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>274.7355609638946</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>1053.877663279709</v>
       </c>
     </row>
     <row r="11">
@@ -5038,10 +5038,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5050,10 +5050,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5120,28 +5120,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>228.9331431646415</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1655.562009178173</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>552.3777707160738</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>383.4415877881669</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>383.4415877881669</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>235.5284942057738</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5260,37 +5260,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>739.5354516872161</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.913939313768</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>695.5020655703109</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>695.5020655703109</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5506,31 +5506,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400712</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2404.800122633203</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2221.945288288107</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2002.343823311048</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1713.268596655246</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1458.584108449359</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1169.166938412398</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>941.1773875143809</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="20">
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397185</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.21291626627</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N21" t="n">
-        <v>1522.21291626627</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O21" t="n">
-        <v>2074.122646505557</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P21" t="n">
-        <v>2497.745796000626</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7084350851671</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>527.7722521572603</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>382.4184417036842</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5946,16 +5946,16 @@
         <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154069</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5995,13 +5995,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6071,22 +6071,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3195.647281583948</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>3026.711098656041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>2876.594459243706</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3897.172899444211</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3826.077876455735</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3598.088325557718</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3377.295746414188</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>221.3431781811722</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>221.3431781811722</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969308</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6454,10 +6454,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6469,13 +6469,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6542,22 +6542,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3122.22696873374</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>3122.22696873374</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>2972.110329321405</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>2824.197235739011</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>2677.307288241101</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>4404.185983673937</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>4115.110757018135</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V31" t="n">
-        <v>3860.426268812248</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>3571.009098775287</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>3343.01954787727</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>3122.22696873374</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6691,16 +6691,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>803.2707707770319</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>653.1541313646961</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>505.241037782303</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>358.3510902843926</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6897,13 +6897,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7016,25 +7016,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.291933891999</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
         <v>402.7245934908939</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2190.770766644916</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1901.695539989114</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1647.011051783227</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.011051783227</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>929.7309773356195</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
         <v>929.7309773356195</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V40" t="n">
-        <v>1849.578742244367</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1560.161572207407</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>1332.172021309389</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>1111.379442165859</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
         <v>352.5519571452614</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>989.3306680894883</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>820.3944851615814</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1170.979132919728</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7645,25 +7645,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>951.3929232910542</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C46" t="n">
-        <v>782.4567403631473</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D46" t="n">
-        <v>632.3401009508116</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E46" t="n">
-        <v>484.4270073684185</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>337.5370598705081</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V46" t="n">
-        <v>1871.240688199802</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W46" t="n">
-        <v>1581.823518162841</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X46" t="n">
-        <v>1353.833967264824</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y46" t="n">
-        <v>1133.041388121294</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
   </sheetData>
@@ -8227,7 +8227,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119837</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,19 +8455,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>312.2066704284449</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>149.9775162190718</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8534,16 +8534,16 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>167.9634363311152</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>74.01734528517885</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.1389282762425</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>112.979237864359</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>2.005313310877568</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23895,22 +23895,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>122.8084169651565</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>24.63391537253393</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>4.71520066917202</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>10.85445046951713</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>216.1389255780001</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>26.01259675821734</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>50.86033664600944</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>43.92976817443621</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>30.15030327141886</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V40" t="n">
-        <v>125.5341284403484</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>108.2431272522977</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26034,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>145.8014946027475</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>35.11263957635547</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>630418.1664798534</v>
+        <v>630418.1664798533</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>630418.1664798533</v>
+        <v>630418.1664798534</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>800515.7256176762</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="F2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="G2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.934697756</v>
       </c>
       <c r="H2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="I2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="J2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="L2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="M2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="K2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="O2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>786967.9346977558</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="O2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.9346977556</v>
       </c>
     </row>
     <row r="3">
@@ -26380,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26426,13 +26426,13 @@
         <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682721</v>
       </c>
       <c r="H4" t="n">
         <v>5677.536566682745</v>
@@ -26441,16 +26441,16 @@
         <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="N4" t="n">
         <v>5677.536566682745</v>
@@ -26459,7 +26459,7 @@
         <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26524,46 +26524,46 @@
         <v>-82233.64712331115</v>
       </c>
       <c r="C6" t="n">
-        <v>507734.2320912337</v>
+        <v>507734.2320912335</v>
       </c>
       <c r="D6" t="n">
-        <v>351930.4259974387</v>
+        <v>351930.4259974385</v>
       </c>
       <c r="E6" t="n">
-        <v>-90884.82307364039</v>
+        <v>-91232.20232799755</v>
       </c>
       <c r="F6" t="n">
-        <v>680167.8683071659</v>
+        <v>679820.489052809</v>
       </c>
       <c r="G6" t="n">
-        <v>680167.8683071658</v>
+        <v>679820.489052809</v>
       </c>
       <c r="H6" t="n">
-        <v>680167.8683071659</v>
+        <v>679820.4890528091</v>
       </c>
       <c r="I6" t="n">
-        <v>680167.8683071659</v>
+        <v>679820.4890528091</v>
       </c>
       <c r="J6" t="n">
-        <v>503744.6491145729</v>
+        <v>503397.2698602161</v>
       </c>
       <c r="K6" t="n">
-        <v>680167.8683071659</v>
+        <v>679820.4890528092</v>
       </c>
       <c r="L6" t="n">
-        <v>680167.868307166</v>
+        <v>679820.4890528092</v>
       </c>
       <c r="M6" t="n">
-        <v>555959.3575991075</v>
+        <v>555611.9783447505</v>
       </c>
       <c r="N6" t="n">
-        <v>680167.8683071659</v>
+        <v>679820.4890528092</v>
       </c>
       <c r="O6" t="n">
-        <v>680167.8683071659</v>
+        <v>679820.4890528091</v>
       </c>
       <c r="P6" t="n">
-        <v>680167.8683071658</v>
+        <v>679820.489052809</v>
       </c>
     </row>
   </sheetData>
@@ -26974,34 +26974,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>123.2421709347053</v>
+        <v>371.3108546898439</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27587,25 +27587,25 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>117.5062691663783</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352323</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>52.61384430493052</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>257.3375444487715</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27672,19 +27672,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>6.098177473245102</v>
+        <v>152.7829238717193</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27827,13 +27827,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>47.52228094764229</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>138.6407886664678</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>134.9426654290987</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>72.82194165410937</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31840,7 +31840,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>261.5336801130329</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31849,7 +31849,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31858,13 +31858,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,16 +32074,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>289.7537444526272</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32095,13 +32095,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>332.9841464938405</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,22 +32548,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
@@ -32572,7 +32572,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>195.8560084902126</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32791,10 +32791,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>568.8264345569168</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,19 +33022,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>255.6522884173741</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33043,10 +33043,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33262,16 +33262,16 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33280,7 +33280,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33736,13 +33736,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>590.4022545401851</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33754,10 +33754,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>332.9841464938405</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33985,7 +33985,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>381.285518532932</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33994,7 +33994,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34134,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34216,7 +34216,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>248.7449369209195</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>177.7456072667729</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34947,7 +34947,7 @@
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492232</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>452.9426864297107</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
         <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>321.865420579637</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>349.2738770933423</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35272,7 +35272,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>96.98395255990307</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>134.6960534463662</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35497,7 +35497,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>151.9123054782682</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35743,13 +35743,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>199.0097390795103</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>351.9532034556938</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
@@ -36220,7 +36220,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>55.87423440419106</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>430.2720547770426</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36670,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>128.8146617507074</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36691,10 +36691,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36928,7 +36928,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>451.847874760311</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37402,10 +37402,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>199.0097390795103</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37633,7 +37633,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>249.9438064495987</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37642,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>110.1905571410453</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3914491.278207133</v>
+        <v>3916251.808509919</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -670,13 +670,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>27.77238941128237</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.92708396620963</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>25.31590541686252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>149.5385012929399</v>
+        <v>378.4326166767232</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>14.46389722690856</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1138,19 +1138,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>61.32905684098938</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>16.01209846167234</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1305,16 +1305,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>17.76943124013382</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>202.3860496764733</v>
       </c>
     </row>
     <row r="11">
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>104.4262124629293</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>75.00788511618036</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.74133133758772</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>241.2831928543109</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>110.1444095748048</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>31.26260713376619</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1591.868758816787</v>
+        <v>1215.881273373638</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>846.9187564332267</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>488.6530578264762</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>102.8648052282319</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>95.91930447902847</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>81.99590041761937</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y2" t="n">
-        <v>1978.468598880909</v>
+        <v>1602.48111343776</v>
       </c>
     </row>
     <row r="3">
@@ -4418,7 +4418,7 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>520.9088977430002</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>962.9693282917581</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C5" t="n">
-        <v>962.9693282917581</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="D5" t="n">
-        <v>604.7036296850076</v>
+        <v>835.9098068403443</v>
       </c>
       <c r="E5" t="n">
-        <v>218.9153770867634</v>
+        <v>450.1215542421001</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.708500331692</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y5" t="n">
-        <v>1349.56916835588</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4667,22 +4667,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
         <v>713.5189870075369</v>
@@ -4716,13 +4716,13 @@
         <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>846.9387812735522</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C8" t="n">
-        <v>477.9762643331405</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D8" t="n">
-        <v>477.9762643331405</v>
+        <v>135.884402556362</v>
       </c>
       <c r="E8" t="n">
-        <v>477.9762643331405</v>
+        <v>135.884402556362</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>128.9389018071586</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>115.8915240839901</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2680.97525418825</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2680.97525418825</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2680.97525418825</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2349.91236684468</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1997.143711574565</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1623.677953313486</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1233.538621337674</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5508014837215</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>258.7803994994155</v>
+        <v>585.1290695857516</v>
       </c>
       <c r="M9" t="n">
-        <v>899.3257489665201</v>
+        <v>764.6264059403564</v>
       </c>
       <c r="N9" t="n">
-        <v>1566.87014899353</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
-        <v>2116.306157746253</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2540.27392622709</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>872.2291984494694</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>703.2930155215626</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>553.1763761092268</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>405.2632825268337</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>258.3733350289233</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>89.76649002430668</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -5007,7 +5007,7 @@
         <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>1053.877663279709</v>
+        <v>849.4473100711502</v>
       </c>
     </row>
     <row r="11">
@@ -5038,22 +5038,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5129,13 +5129,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2341.482060890433</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2052.406834234631</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1797.722346028744</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
-        <v>1508.305175991783</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>1280.315625093766</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5260,16 +5260,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5278,19 +5278,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,22 +5360,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>579.1554649516142</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>1176.533952578166</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N15" t="n">
-        <v>1804.131916132773</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2356.04164637206</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5512,16 +5512,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>538.7363435406111</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2404.800122633203</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2221.945288288107</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2002.343823311048</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1713.268596655246</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1458.584108449359</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1169.166938412398</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>941.1773875143809</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>720.3848083708508</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5749,10 +5749,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075811</v>
@@ -5761,13 +5761,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5834,25 +5834,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5986,22 +5986,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6083,7 +6083,7 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6126,19 +6126,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6208,37 +6208,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6454,10 +6454,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6466,7 +6466,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6691,31 +6691,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6837,22 +6837,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6919,37 +6919,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7019,25 +7019,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2356.04164637206</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7165,19 +7165,19 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7256,19 +7256,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,28 +7408,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7493,19 +7493,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2268.660400464173</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2049.058935487114</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1759.983708831312</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="44">
@@ -7645,25 +7645,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>951.7772127656159</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>782.841029837709</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>632.7243904253733</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2415.384692536053</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2415.384692536053</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2415.384692536053</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>2126.309465880251</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1871.624977674364</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1582.207807637403</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1354.218256739386</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1133.425677595856</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,10 +8066,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,13 +8534,13 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>65.17988428675082</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>473.6238973478236</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>74.01734528517885</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>112.979237864359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>211.5151132204106</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>24.63391537253393</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>10.85445046951713</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>24.63391537253449</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>70.88187642683975</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>35.11263957635547</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>630418.1664798534</v>
+        <v>630418.1664798533</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>630418.1664798534</v>
+        <v>630418.1664798533</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>630418.1664798534</v>
+        <v>630418.1664798533</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="F2" t="n">
         <v>786967.9346977556</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="H2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="L2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="G2" t="n">
+      <c r="M2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="N2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="O2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="H2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="P2" t="n">
         <v>786967.9346977557</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="O2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.9346977558</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26423,7 +26423,7 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
         <v>5677.536566682745</v>
@@ -26432,13 +26432,13 @@
         <v>5677.536566682744</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682721</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
         <v>5677.536566682745</v>
@@ -26453,7 +26453,7 @@
         <v>5677.536566682744</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="O4" t="n">
         <v>5677.536566682745</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-82233.64712331115</v>
+        <v>-82233.6471233108</v>
       </c>
       <c r="C6" t="n">
         <v>507734.2320912335</v>
       </c>
       <c r="D6" t="n">
-        <v>351930.4259974385</v>
+        <v>351930.4259974387</v>
       </c>
       <c r="E6" t="n">
-        <v>-91232.20232799755</v>
+        <v>-90919.56099907609</v>
       </c>
       <c r="F6" t="n">
-        <v>679820.489052809</v>
+        <v>680133.1303817302</v>
       </c>
       <c r="G6" t="n">
-        <v>679820.489052809</v>
+        <v>680133.1303817304</v>
       </c>
       <c r="H6" t="n">
-        <v>679820.4890528091</v>
+        <v>680133.13038173</v>
       </c>
       <c r="I6" t="n">
-        <v>679820.4890528091</v>
+        <v>680133.1303817304</v>
       </c>
       <c r="J6" t="n">
-        <v>503397.2698602161</v>
+        <v>503709.9111891369</v>
       </c>
       <c r="K6" t="n">
-        <v>679820.4890528092</v>
+        <v>680133.1303817304</v>
       </c>
       <c r="L6" t="n">
-        <v>679820.4890528092</v>
+        <v>680133.1303817303</v>
       </c>
       <c r="M6" t="n">
-        <v>555611.9783447505</v>
+        <v>555924.6196736719</v>
       </c>
       <c r="N6" t="n">
-        <v>679820.4890528092</v>
+        <v>680133.1303817303</v>
       </c>
       <c r="O6" t="n">
-        <v>679820.4890528091</v>
+        <v>680133.1303817305</v>
       </c>
       <c r="P6" t="n">
-        <v>679820.489052809</v>
+        <v>680133.1303817303</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>296.1503833530748</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>371.3108546898439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>193.2687479352323</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>257.3375444487715</v>
+        <v>28.44342906498821</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>152.7829238717193</v>
+        <v>152.7829238717195</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27858,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>253.7118272342262</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>138.6407886664678</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>134.9426654290987</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>16.19860367562146</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31849,16 +31849,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>573.8098963904297</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32080,25 +32080,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>741.1502463817021</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>332.9841464938405</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>615.038144437878</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33739,13 +33739,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33754,13 +33754,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>332.9841464938405</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33976,13 +33976,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33991,7 +33991,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>436.0678650906015</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34134,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34213,13 +34213,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>246.9596973201446</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34228,7 +34228,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>177.7456072667729</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34786,16 +34786,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>203.7956398581589</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
         <v>674.2872727545556</v>
@@ -35272,7 +35272,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>96.98395255990307</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>431.6758624684114</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>609.8085342983688</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>199.0097390795103</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>472.9041105158597</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>256.1654199113569</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37402,13 +37402,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>199.0097390795103</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37639,7 +37639,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>302.0934576762713</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37861,13 +37861,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>108.4053175402704</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37876,7 +37876,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
